--- a/my-app/regionseng/11/main information/area.xlsx
+++ b/my-app/regionseng/11/main information/area.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="1350" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12570" yWindow="1350" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="1" r:id="rId1"/>
+    <sheet name="Tbilisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -16,29 +16,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Area of Mtskheta-Mtianeti  </t>
+    <t>Area of Tbilisi</t>
+  </si>
+  <si>
+    <t>Area (sq.km)</t>
   </si>
   <si>
     <t>Indicator</t>
-  </si>
-  <si>
-    <t>Area (sq.km)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -101,15 +105,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -422,34 +427,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
+      <c r="A5" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>5606</v>
+      <c r="B5" s="6">
+        <v>504.2</v>
       </c>
     </row>
   </sheetData>
